--- a/Code/Results/Cases/Case_9_29/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_9_29/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.964228052554176</v>
+        <v>1.907541440204653</v>
       </c>
       <c r="C2">
-        <v>0.4424074753160028</v>
+        <v>0.4473940564075889</v>
       </c>
       <c r="D2">
-        <v>0.06020434125872498</v>
+        <v>0.06281630071845257</v>
       </c>
       <c r="E2">
-        <v>0.08054966015937381</v>
+        <v>0.07732443800279754</v>
       </c>
       <c r="F2">
-        <v>0.4642606655118016</v>
+        <v>0.4405648355601599</v>
       </c>
       <c r="G2">
-        <v>0.3584948989268923</v>
+        <v>0.3158052094623116</v>
       </c>
       <c r="H2">
-        <v>0.0004529217204436442</v>
+        <v>0.0003451682739128437</v>
       </c>
       <c r="I2">
-        <v>0.0004495147790097853</v>
+        <v>0.000542074390422087</v>
       </c>
       <c r="J2">
-        <v>0.291207652187083</v>
+        <v>0.3185655410130082</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.1541686088684528</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.07255189901412606</v>
       </c>
       <c r="N2">
-        <v>0.1710751042815346</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0.3511541669024751</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0.879192690112113</v>
+        <v>0.1784479600175999</v>
       </c>
       <c r="Q2">
-        <v>1.318832079173092</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.3459122834673494</v>
+      </c>
+      <c r="R2">
+        <v>0.887793259437494</v>
+      </c>
+      <c r="S2">
+        <v>1.240050466102318</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.711407548687475</v>
+        <v>1.667221295649028</v>
       </c>
       <c r="C3">
-        <v>0.4144943786893407</v>
+        <v>0.4126849600740741</v>
       </c>
       <c r="D3">
-        <v>0.05355484711875391</v>
+        <v>0.05546220669997126</v>
       </c>
       <c r="E3">
-        <v>0.07886974890441323</v>
+        <v>0.07600262820712844</v>
       </c>
       <c r="F3">
-        <v>0.4315594184526645</v>
+        <v>0.4115206270854017</v>
       </c>
       <c r="G3">
-        <v>0.3345986683270397</v>
+        <v>0.2957023175995133</v>
       </c>
       <c r="H3">
-        <v>0.001058781879363146</v>
+        <v>0.0008438899914070541</v>
       </c>
       <c r="I3">
-        <v>0.0006186664738221381</v>
+        <v>0.0005707666532952516</v>
       </c>
       <c r="J3">
-        <v>0.2838995924611538</v>
+        <v>0.3110722883301804</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1585598208407824</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.07011310095922241</v>
       </c>
       <c r="N3">
-        <v>0.1541808617831109</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0.3069997418990837</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0.8879332833078593</v>
+        <v>0.1610274904877613</v>
       </c>
       <c r="Q3">
-        <v>1.252595300222751</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.3028610568859662</v>
+      </c>
+      <c r="R3">
+        <v>0.8897037156261192</v>
+      </c>
+      <c r="S3">
+        <v>1.184782525247499</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.555515690583661</v>
+        <v>1.518748089152069</v>
       </c>
       <c r="C4">
-        <v>0.3973901965719477</v>
+        <v>0.391530262231754</v>
       </c>
       <c r="D4">
-        <v>0.04947481690563649</v>
+        <v>0.05096082105969657</v>
       </c>
       <c r="E4">
-        <v>0.07780771788082319</v>
+        <v>0.07516261618513154</v>
       </c>
       <c r="F4">
-        <v>0.4118782545053392</v>
+        <v>0.3939761868315443</v>
       </c>
       <c r="G4">
-        <v>0.320237220723989</v>
+        <v>0.2836489944895746</v>
       </c>
       <c r="H4">
-        <v>0.001576733647521422</v>
+        <v>0.001275996065993712</v>
       </c>
       <c r="I4">
-        <v>0.0008958168153321289</v>
+        <v>0.0007351286997123729</v>
       </c>
       <c r="J4">
-        <v>0.2796440955418902</v>
+        <v>0.3065347298229497</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.1613394958325536</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.06915154434267201</v>
       </c>
       <c r="N4">
-        <v>0.1438249361828596</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0.2798216955623474</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0.8939833585452703</v>
+        <v>0.1503667320922162</v>
       </c>
       <c r="Q4">
-        <v>1.213061752127729</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.2763328145645545</v>
+      </c>
+      <c r="R4">
+        <v>0.8916489503744103</v>
+      </c>
+      <c r="S4">
+        <v>1.151637007390789</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.490855164940569</v>
+        <v>1.457062773030145</v>
       </c>
       <c r="C5">
-        <v>0.3908401888850932</v>
+        <v>0.3833927227088623</v>
       </c>
       <c r="D5">
-        <v>0.04785819538943059</v>
+        <v>0.04917637492030735</v>
       </c>
       <c r="E5">
-        <v>0.07734007299301293</v>
+        <v>0.07478806182592468</v>
       </c>
       <c r="F5">
-        <v>0.4035915389133322</v>
+        <v>0.3865427497012277</v>
       </c>
       <c r="G5">
-        <v>0.3140911881188373</v>
+        <v>0.2784540463642884</v>
       </c>
       <c r="H5">
-        <v>0.001824501998000105</v>
+        <v>0.001483778082249754</v>
       </c>
       <c r="I5">
-        <v>0.001119795524603617</v>
+        <v>0.0009192255995396081</v>
       </c>
       <c r="J5">
-        <v>0.2777773539211239</v>
+        <v>0.3045102190631042</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1623425409407311</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.06882272594877392</v>
       </c>
       <c r="N5">
-        <v>0.1396744706746418</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0.268641147948383</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.8969053747141942</v>
+        <v>0.1460975227511199</v>
       </c>
       <c r="Q5">
-        <v>1.196049159548735</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.2654112427000825</v>
+      </c>
+      <c r="R5">
+        <v>0.8929490224896242</v>
+      </c>
+      <c r="S5">
+        <v>1.137180180841881</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.478926596332116</v>
+        <v>1.445642511543241</v>
       </c>
       <c r="C6">
-        <v>0.390261488141121</v>
+        <v>0.3825925290534116</v>
       </c>
       <c r="D6">
-        <v>0.04764587917991037</v>
+        <v>0.04893769463829756</v>
       </c>
       <c r="E6">
-        <v>0.0772290985458719</v>
+        <v>0.0746950870015195</v>
       </c>
       <c r="F6">
-        <v>0.4017798627117415</v>
+        <v>0.3848822956729308</v>
       </c>
       <c r="G6">
-        <v>0.312626269988705</v>
+        <v>0.2771665699946553</v>
       </c>
       <c r="H6">
-        <v>0.00186975168050052</v>
+        <v>0.001521858075612004</v>
       </c>
       <c r="I6">
-        <v>0.001251698244659316</v>
+        <v>0.001060819841856464</v>
       </c>
       <c r="J6">
-        <v>0.2772399200284212</v>
+        <v>0.3039419780649624</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1623270872221774</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.06868911924965282</v>
       </c>
       <c r="N6">
-        <v>0.13906691072944</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0.2666763962908405</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.8977566750823627</v>
+        <v>0.1454714972329541</v>
       </c>
       <c r="Q6">
-        <v>1.191805559568351</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.2634900814323657</v>
+      </c>
+      <c r="R6">
+        <v>0.8935673322295443</v>
+      </c>
+      <c r="S6">
+        <v>1.133401821805762</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.551406208272596</v>
+        <v>1.513627371526781</v>
       </c>
       <c r="C7">
-        <v>0.3986971013821687</v>
+        <v>0.392567013516981</v>
       </c>
       <c r="D7">
-        <v>0.04960680110747973</v>
+        <v>0.05119802654868977</v>
       </c>
       <c r="E7">
-        <v>0.07771234900967183</v>
+        <v>0.07507701070532402</v>
       </c>
       <c r="F7">
-        <v>0.4105601023665884</v>
+        <v>0.39195410582726</v>
       </c>
       <c r="G7">
-        <v>0.3189275819631305</v>
+        <v>0.2851837669179673</v>
       </c>
       <c r="H7">
-        <v>0.001584902648708586</v>
+        <v>0.001285144244471015</v>
       </c>
       <c r="I7">
-        <v>0.001135114929334158</v>
+        <v>0.001018272371777762</v>
       </c>
       <c r="J7">
-        <v>0.2789886274802029</v>
+        <v>0.3017456512113128</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.1606978909614689</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.06881077637441813</v>
       </c>
       <c r="N7">
-        <v>0.1439921597833091</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0.2793774091085552</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>0.8950098338228969</v>
+        <v>0.1505155865680123</v>
       </c>
       <c r="Q7">
-        <v>1.208911376939</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.2757367154749772</v>
+      </c>
+      <c r="R7">
+        <v>0.8931572027162602</v>
+      </c>
+      <c r="S7">
+        <v>1.145254920075914</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.872860743514394</v>
+        <v>1.816921031721819</v>
       </c>
       <c r="C8">
-        <v>0.4346512355948278</v>
+        <v>0.4362204220449541</v>
       </c>
       <c r="D8">
-        <v>0.05811659905922539</v>
+        <v>0.06083925193516393</v>
       </c>
       <c r="E8">
-        <v>0.07986136035612024</v>
+        <v>0.07677704293725141</v>
       </c>
       <c r="F8">
-        <v>0.4513000603636996</v>
+        <v>0.426453066292261</v>
       </c>
       <c r="G8">
-        <v>0.3485620488366479</v>
+        <v>0.3165698955849834</v>
       </c>
       <c r="H8">
-        <v>0.0006344338532239258</v>
+        <v>0.0004975566881154636</v>
       </c>
       <c r="I8">
-        <v>0.0007533413168205882</v>
+        <v>0.0008581031914989268</v>
       </c>
       <c r="J8">
-        <v>0.2878064611727709</v>
+        <v>0.3016583178954448</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.1545832196050867</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.07088749065381705</v>
       </c>
       <c r="N8">
-        <v>0.1655444581740042</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0.3355504397546767</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>0.883436433818801</v>
+        <v>0.1726730810842696</v>
       </c>
       <c r="Q8">
-        <v>1.290559359187597</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.3301689120655453</v>
+      </c>
+      <c r="R8">
+        <v>0.8912392475530524</v>
+      </c>
+      <c r="S8">
+        <v>1.207887076481583</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.504027623070499</v>
+        <v>2.414234072831675</v>
       </c>
       <c r="C9">
-        <v>0.5030190131000722</v>
+        <v>0.5217525269711132</v>
       </c>
       <c r="D9">
-        <v>0.07456940712129523</v>
+        <v>0.07921603356651019</v>
       </c>
       <c r="E9">
-        <v>0.08400053694933707</v>
+        <v>0.08003036757817217</v>
       </c>
       <c r="F9">
-        <v>0.5367845222973031</v>
+        <v>0.5014366785378996</v>
       </c>
       <c r="G9">
-        <v>0.4115775083823365</v>
+        <v>0.3725745384222705</v>
       </c>
       <c r="H9">
-        <v>2.50814090407836E-06</v>
+        <v>6.599668303408635E-06</v>
       </c>
       <c r="I9">
-        <v>0.001117863897269089</v>
+        <v>0.00135297925143707</v>
       </c>
       <c r="J9">
-        <v>0.3081623466030265</v>
+        <v>0.3177530945675358</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.1446394374410183</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.08009164308527517</v>
       </c>
       <c r="N9">
-        <v>0.2075945244511814</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0.4457555632749006</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>0.8644988841478209</v>
+        <v>0.2161144670348918</v>
       </c>
       <c r="Q9">
-        <v>1.467415746757609</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0.4372943583134585</v>
+      </c>
+      <c r="R9">
+        <v>0.8902558186710792</v>
+      </c>
+      <c r="S9">
+        <v>1.352987273165382</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.952476913199519</v>
+        <v>2.83134056411285</v>
       </c>
       <c r="C10">
-        <v>0.5594506979568905</v>
+        <v>0.5891753313692902</v>
       </c>
       <c r="D10">
-        <v>0.08758190103763042</v>
+        <v>0.09431544180201001</v>
       </c>
       <c r="E10">
-        <v>0.08549000247297389</v>
+        <v>0.08112626944922319</v>
       </c>
       <c r="F10">
-        <v>0.5956275287209394</v>
+        <v>0.5483186866964758</v>
       </c>
       <c r="G10">
-        <v>0.4533162618773616</v>
+        <v>0.4266272580506154</v>
       </c>
       <c r="H10">
-        <v>0.0005441605909095593</v>
+        <v>0.000527458097700606</v>
       </c>
       <c r="I10">
-        <v>0.002502582731108483</v>
+        <v>0.002681929330839772</v>
       </c>
       <c r="J10">
-        <v>0.3211450314661448</v>
+        <v>0.3047714169477018</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.1356832216807256</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.08715461190657692</v>
       </c>
       <c r="N10">
-        <v>0.2276382780354851</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0.5179402602013639</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>0.8607265246665747</v>
+        <v>0.2368272826252706</v>
       </c>
       <c r="Q10">
-        <v>1.583517573186469</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0.5063167043917218</v>
+      </c>
+      <c r="R10">
+        <v>0.9033104525318691</v>
+      </c>
+      <c r="S10">
+        <v>1.432577835727329</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.055618840809188</v>
+        <v>2.922475457682992</v>
       </c>
       <c r="C11">
-        <v>0.6350330862462101</v>
+        <v>0.6643234495490731</v>
       </c>
       <c r="D11">
-        <v>0.1009766174495894</v>
+        <v>0.1096154075048617</v>
       </c>
       <c r="E11">
-        <v>0.07998990118232063</v>
+        <v>0.07713423283194532</v>
       </c>
       <c r="F11">
-        <v>0.5705007772333772</v>
+        <v>0.5168297173336498</v>
       </c>
       <c r="G11">
-        <v>0.420051809272195</v>
+        <v>0.4329798577640673</v>
       </c>
       <c r="H11">
-        <v>0.01907708019212251</v>
+        <v>0.01904006102968481</v>
       </c>
       <c r="I11">
-        <v>0.003454975675950323</v>
+        <v>0.003663150736868737</v>
       </c>
       <c r="J11">
-        <v>0.3006885350199866</v>
+        <v>0.2460935705561624</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.1205447904841588</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.07683396593627023</v>
       </c>
       <c r="N11">
-        <v>0.1516791568157032</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0.4784624650373601</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>0.918831279607943</v>
+        <v>0.1583388315525269</v>
       </c>
       <c r="Q11">
-        <v>1.470348840078742</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0.4657399574591139</v>
+      </c>
+      <c r="R11">
+        <v>0.9774500937078585</v>
+      </c>
+      <c r="S11">
+        <v>1.302848244798383</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.051695443976769</v>
+        <v>2.919338773706841</v>
       </c>
       <c r="C12">
-        <v>0.6890492104700456</v>
+        <v>0.7156893574774585</v>
       </c>
       <c r="D12">
-        <v>0.1097462057592224</v>
+        <v>0.1191559305872545</v>
       </c>
       <c r="E12">
-        <v>0.08313673345865791</v>
+        <v>0.08126093641584653</v>
       </c>
       <c r="F12">
-        <v>0.5387064809118769</v>
+        <v>0.4850534275064362</v>
       </c>
       <c r="G12">
-        <v>0.3857188322030112</v>
+        <v>0.4176055437171726</v>
       </c>
       <c r="H12">
-        <v>0.05767371546385647</v>
+        <v>0.05763644244904498</v>
       </c>
       <c r="I12">
-        <v>0.003536580855401539</v>
+        <v>0.003722188524366565</v>
       </c>
       <c r="J12">
-        <v>0.2818181346274002</v>
+        <v>0.2167610035115146</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.1115399628847094</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.06795346052498985</v>
       </c>
       <c r="N12">
-        <v>0.09852563660275138</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0.4320084997828673</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>0.9744257553423239</v>
+        <v>0.1031886961493456</v>
       </c>
       <c r="Q12">
-        <v>1.358122428914243</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0.4196782991163204</v>
+      </c>
+      <c r="R12">
+        <v>1.040789044546628</v>
+      </c>
+      <c r="S12">
+        <v>1.193522233563158</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.960019879900869</v>
+        <v>2.84142577033208</v>
       </c>
       <c r="C13">
-        <v>0.7312020164621345</v>
+        <v>0.7549755065855095</v>
       </c>
       <c r="D13">
-        <v>0.1156170361129654</v>
+        <v>0.1245394047457182</v>
       </c>
       <c r="E13">
-        <v>0.09272633160558641</v>
+        <v>0.09166554492348489</v>
       </c>
       <c r="F13">
-        <v>0.497947874189677</v>
+        <v>0.4507580307379229</v>
       </c>
       <c r="G13">
-        <v>0.346598680985224</v>
+        <v>0.375917736229411</v>
       </c>
       <c r="H13">
-        <v>0.1132998056737762</v>
+        <v>0.1132762663816749</v>
       </c>
       <c r="I13">
-        <v>0.003267696147983834</v>
+        <v>0.003478914910899356</v>
       </c>
       <c r="J13">
-        <v>0.2620344862405517</v>
+        <v>0.2082218663594801</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.1056221885795132</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.05953628172544789</v>
       </c>
       <c r="N13">
-        <v>0.06024524197871273</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0.3773610113969639</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>1.03163892773857</v>
+        <v>0.06325516817223331</v>
       </c>
       <c r="Q13">
-        <v>1.233751206186611</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.3668244791187547</v>
+      </c>
+      <c r="R13">
+        <v>1.097130296313935</v>
+      </c>
+      <c r="S13">
+        <v>1.09132113254671</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.855470185679508</v>
+        <v>2.752081860586884</v>
       </c>
       <c r="C14">
-        <v>0.7560927055967568</v>
+        <v>0.777813182799008</v>
       </c>
       <c r="D14">
-        <v>0.1184768535758991</v>
+        <v>0.1264594810933914</v>
       </c>
       <c r="E14">
-        <v>0.1032763516889599</v>
+        <v>0.1027521982056232</v>
       </c>
       <c r="F14">
-        <v>0.4652960791320666</v>
+        <v>0.4251927610394972</v>
       </c>
       <c r="G14">
-        <v>0.3170695232628447</v>
+        <v>0.3362705460939992</v>
       </c>
       <c r="H14">
-        <v>0.1625500569446388</v>
+        <v>0.1625381263647228</v>
       </c>
       <c r="I14">
-        <v>0.003014384786683699</v>
+        <v>0.003275761559771162</v>
       </c>
       <c r="J14">
-        <v>0.2477513969008953</v>
+        <v>0.2098395763417713</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.1026068930030011</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.0539572742976393</v>
       </c>
       <c r="N14">
-        <v>0.04242584851458986</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0.3359271061692581</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>1.07323062937391</v>
+        <v>0.04447500349325217</v>
       </c>
       <c r="Q14">
-        <v>1.141195321774234</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.3271528803036432</v>
+      </c>
+      <c r="R14">
+        <v>1.133702286555675</v>
+      </c>
+      <c r="S14">
+        <v>1.021589258120301</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.810355007410976</v>
+        <v>2.713113358023577</v>
       </c>
       <c r="C15">
-        <v>0.7597348218584727</v>
+        <v>0.7810422691208601</v>
       </c>
       <c r="D15">
-        <v>0.1185561977896867</v>
+        <v>0.126058879862498</v>
       </c>
       <c r="E15">
-        <v>0.1061738841562381</v>
+        <v>0.1058108061044223</v>
       </c>
       <c r="F15">
-        <v>0.4550718951973352</v>
+        <v>0.4178219159679841</v>
       </c>
       <c r="G15">
-        <v>0.3084262957778918</v>
+        <v>0.3218189893002403</v>
       </c>
       <c r="H15">
-        <v>0.1750174938177338</v>
+        <v>0.1750098127019868</v>
       </c>
       <c r="I15">
-        <v>0.002991122521984302</v>
+        <v>0.003295009824689998</v>
       </c>
       <c r="J15">
-        <v>0.2438730160021834</v>
+        <v>0.213431936086991</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.1022163527957787</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.0525652930014413</v>
       </c>
       <c r="N15">
-        <v>0.03927228715751241</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0.3238860295381727</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>1.083229120677771</v>
+        <v>0.04113438694978733</v>
       </c>
       <c r="Q15">
-        <v>1.114720398845833</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.3157689151093379</v>
+      </c>
+      <c r="R15">
+        <v>1.140712719269132</v>
+      </c>
+      <c r="S15">
+        <v>1.00392989447721</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.636108489512935</v>
+        <v>2.559570743558652</v>
       </c>
       <c r="C16">
-        <v>0.7260840149829164</v>
+        <v>0.7474947230576277</v>
       </c>
       <c r="D16">
-        <v>0.1116223258713234</v>
+        <v>0.1170590800462605</v>
       </c>
       <c r="E16">
-        <v>0.1031102953281895</v>
+        <v>0.1030314974837552</v>
       </c>
       <c r="F16">
-        <v>0.4374990474445539</v>
+        <v>0.4097896394192304</v>
       </c>
       <c r="G16">
-        <v>0.297981672237448</v>
+        <v>0.2841498976878896</v>
       </c>
       <c r="H16">
-        <v>0.1620734487749473</v>
+        <v>0.1620738505340427</v>
       </c>
       <c r="I16">
-        <v>0.002517109463444633</v>
+        <v>0.002907690539430519</v>
       </c>
       <c r="J16">
-        <v>0.2419460130612592</v>
+        <v>0.2437783743630675</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.1060367893342669</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.05261555756412939</v>
       </c>
       <c r="N16">
-        <v>0.03951147559456025</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0.3053507045006967</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>1.069929347943599</v>
+        <v>0.04164580784970084</v>
       </c>
       <c r="Q16">
-        <v>1.088359879697606</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.2992570557341736</v>
+      </c>
+      <c r="R16">
+        <v>1.11284505799641</v>
+      </c>
+      <c r="S16">
+        <v>1.005328947965864</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.557824897346904</v>
+        <v>2.487337584730994</v>
       </c>
       <c r="C17">
-        <v>0.6870838774792389</v>
+        <v>0.7088182236956015</v>
       </c>
       <c r="D17">
-        <v>0.1048041154112695</v>
+        <v>0.1094339617217486</v>
       </c>
       <c r="E17">
-        <v>0.09454070034666984</v>
+        <v>0.09427645000748974</v>
       </c>
       <c r="F17">
-        <v>0.4413343521600339</v>
+        <v>0.4163743252270109</v>
       </c>
       <c r="G17">
-        <v>0.3055344982743335</v>
+        <v>0.2793616107891026</v>
       </c>
       <c r="H17">
-        <v>0.1241961974608046</v>
+        <v>0.124192134191901</v>
       </c>
       <c r="I17">
-        <v>0.002328300728663635</v>
+        <v>0.002753399886031183</v>
       </c>
       <c r="J17">
-        <v>0.2480343105918479</v>
+        <v>0.264076678989511</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.1108609634440096</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.05532774702444421</v>
       </c>
       <c r="N17">
-        <v>0.04763217288466848</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0.3127042455116609</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>1.03787805339509</v>
+        <v>0.05043828200097167</v>
       </c>
       <c r="Q17">
-        <v>1.117004559702963</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.3071236258247865</v>
+      </c>
+      <c r="R17">
+        <v>1.074259756136541</v>
+      </c>
+      <c r="S17">
+        <v>1.041172426767545</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.555370834567384</v>
+        <v>2.481758398205784</v>
       </c>
       <c r="C18">
-        <v>0.639305637023881</v>
+        <v>0.6621822275477314</v>
       </c>
       <c r="D18">
-        <v>0.0973288822825964</v>
+        <v>0.1018030765302171</v>
       </c>
       <c r="E18">
-        <v>0.08400229568951012</v>
+        <v>0.08309044546005495</v>
       </c>
       <c r="F18">
-        <v>0.4650107260339169</v>
+        <v>0.4387992054715966</v>
       </c>
       <c r="G18">
-        <v>0.3307407613120716</v>
+        <v>0.2967952034328718</v>
       </c>
       <c r="H18">
-        <v>0.07135254440143513</v>
+        <v>0.07134694882467585</v>
       </c>
       <c r="I18">
-        <v>0.002046145514563058</v>
+        <v>0.00243178362599128</v>
       </c>
       <c r="J18">
-        <v>0.2623031255059374</v>
+        <v>0.2834256619789812</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.1178739246684106</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.06116734360826115</v>
       </c>
       <c r="N18">
-        <v>0.07112151335014261</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0.3444544055858785</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>0.9878361736842578</v>
+        <v>0.07514215672324198</v>
       </c>
       <c r="Q18">
-        <v>1.200252431141564</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.3384473950505793</v>
+      </c>
+      <c r="R18">
+        <v>1.021603603324422</v>
+      </c>
+      <c r="S18">
+        <v>1.119179218211698</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.60768642201532</v>
+        <v>2.524961695415413</v>
       </c>
       <c r="C19">
-        <v>0.5940378555288532</v>
+        <v>0.6187766532934518</v>
       </c>
       <c r="D19">
-        <v>0.09045244481070824</v>
+        <v>0.09514499652083686</v>
       </c>
       <c r="E19">
-        <v>0.07829460127988241</v>
+        <v>0.07629099770831838</v>
       </c>
       <c r="F19">
-        <v>0.5013717810593121</v>
+        <v>0.4713361098953897</v>
       </c>
       <c r="G19">
-        <v>0.3672966366996349</v>
+        <v>0.3274255703629336</v>
       </c>
       <c r="H19">
-        <v>0.02615979914284594</v>
+        <v>0.02615972381632048</v>
       </c>
       <c r="I19">
-        <v>0.002222163806161248</v>
+        <v>0.002628833347189996</v>
       </c>
       <c r="J19">
-        <v>0.2814694501613246</v>
+        <v>0.3023460598719652</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.1261488699715194</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.06916149006849004</v>
       </c>
       <c r="N19">
-        <v>0.1171125675009819</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0.3949758557408245</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>0.9345519060395304</v>
+        <v>0.1229010050236639</v>
       </c>
       <c r="Q19">
-        <v>1.317862594577633</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.3878759745932499</v>
+      </c>
+      <c r="R19">
+        <v>0.9677718848435433</v>
+      </c>
+      <c r="S19">
+        <v>1.223395824969202</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.824071960422657</v>
+        <v>2.715686325695231</v>
       </c>
       <c r="C20">
-        <v>0.549428978101588</v>
+        <v>0.5780780319670669</v>
       </c>
       <c r="D20">
-        <v>0.08469098102317218</v>
+        <v>0.0904930574856877</v>
       </c>
       <c r="E20">
-        <v>0.08479277307568989</v>
+        <v>0.08056033950647201</v>
       </c>
       <c r="F20">
-        <v>0.5759800659467231</v>
+        <v>0.5347413968709631</v>
       </c>
       <c r="G20">
-        <v>0.4381396857032485</v>
+        <v>0.3980369700809518</v>
       </c>
       <c r="H20">
-        <v>0.0003197050076462205</v>
+        <v>0.0003201366767169311</v>
       </c>
       <c r="I20">
-        <v>0.002794064290876364</v>
+        <v>0.003170205550016014</v>
       </c>
       <c r="J20">
-        <v>0.3155725213577227</v>
+        <v>0.3199321437942473</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.1372956532522096</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.08443209551187536</v>
       </c>
       <c r="N20">
-        <v>0.222597583319498</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0.4977186446068558</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>0.8652880768611624</v>
+        <v>0.2316733296691922</v>
       </c>
       <c r="Q20">
-        <v>1.539564206428082</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0.4875446057005277</v>
+      </c>
+      <c r="R20">
+        <v>0.9021359763148453</v>
+      </c>
+      <c r="S20">
+        <v>1.407670178573909</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.186184670370608</v>
+        <v>3.028951970423748</v>
       </c>
       <c r="C21">
-        <v>0.5842053456525491</v>
+        <v>0.6143787401584859</v>
       </c>
       <c r="D21">
-        <v>0.09338430681658849</v>
+        <v>0.1029892867223765</v>
       </c>
       <c r="E21">
-        <v>0.0881085931917891</v>
+        <v>0.08332328161487457</v>
       </c>
       <c r="F21">
-        <v>0.6319004604825267</v>
+        <v>0.5658583266087831</v>
       </c>
       <c r="G21">
-        <v>0.4809001030521216</v>
+        <v>0.5066391867655682</v>
       </c>
       <c r="H21">
-        <v>0.0008401343769510738</v>
+        <v>0.0007542555777719784</v>
       </c>
       <c r="I21">
-        <v>0.004108856050568654</v>
+        <v>0.004291436381712366</v>
       </c>
       <c r="J21">
-        <v>0.3310509365311276</v>
+        <v>0.2497902023619289</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.1308446212738978</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.09051648566468984</v>
       </c>
       <c r="N21">
-        <v>0.2551934325092873</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0.5662580721856756</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>0.8540294230514576</v>
+        <v>0.2649649881874296</v>
       </c>
       <c r="Q21">
-        <v>1.662947067834267</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0.5501203772295327</v>
+      </c>
+      <c r="R21">
+        <v>0.9131014649135096</v>
+      </c>
+      <c r="S21">
+        <v>1.453140331029033</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.421314550179261</v>
+        <v>3.230298620730707</v>
       </c>
       <c r="C22">
-        <v>0.6077190119088129</v>
+        <v>0.6381682858985869</v>
       </c>
       <c r="D22">
-        <v>0.09927936930558445</v>
+        <v>0.1115963161841478</v>
       </c>
       <c r="E22">
-        <v>0.0896591357443226</v>
+        <v>0.08466444393002881</v>
       </c>
       <c r="F22">
-        <v>0.667630169202539</v>
+        <v>0.5841804039680696</v>
       </c>
       <c r="G22">
-        <v>0.5079014947291398</v>
+        <v>0.5860674385180289</v>
       </c>
       <c r="H22">
-        <v>0.001437023601632448</v>
+        <v>0.001254122849514983</v>
       </c>
       <c r="I22">
-        <v>0.004895015889332832</v>
+        <v>0.004828094019077689</v>
       </c>
       <c r="J22">
-        <v>0.3407442792818927</v>
+        <v>0.2085559166982662</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.1264445893971082</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.09438400887214016</v>
       </c>
       <c r="N22">
-        <v>0.2705603141264845</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0.607162102632465</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>0.8488731772651192</v>
+        <v>0.2806060642355277</v>
       </c>
       <c r="Q22">
-        <v>1.740688913903114</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0.5868644050894432</v>
+      </c>
+      <c r="R22">
+        <v>0.9237148616978743</v>
+      </c>
+      <c r="S22">
+        <v>1.476381682632137</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.299820727654833</v>
+        <v>3.129848654439911</v>
       </c>
       <c r="C23">
-        <v>0.5933970572944531</v>
+        <v>0.6245121265061755</v>
       </c>
       <c r="D23">
-        <v>0.0959414524445279</v>
+        <v>0.1064877283964947</v>
       </c>
       <c r="E23">
-        <v>0.08892916561027864</v>
+        <v>0.08401343405783201</v>
       </c>
       <c r="F23">
-        <v>0.6499343986622961</v>
+        <v>0.5777100979261718</v>
       </c>
       <c r="G23">
-        <v>0.4948958017016309</v>
+        <v>0.536172987727582</v>
       </c>
       <c r="H23">
-        <v>0.00110359774213642</v>
+        <v>0.0009791408836713478</v>
       </c>
       <c r="I23">
-        <v>0.004175988751687676</v>
+        <v>0.004190498263507259</v>
       </c>
       <c r="J23">
-        <v>0.3362785822353516</v>
+        <v>0.2375148217403193</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.1293927824030412</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.09308858219751315</v>
       </c>
       <c r="N23">
-        <v>0.2620775169654479</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0.585691906399596</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>0.850154601773724</v>
+        <v>0.2720163780854818</v>
       </c>
       <c r="Q23">
-        <v>1.703658775701115</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0.5680592764883983</v>
+      </c>
+      <c r="R23">
+        <v>0.9149053426883995</v>
+      </c>
+      <c r="S23">
+        <v>1.474440691721384</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.832725463212682</v>
+        <v>2.723518904026378</v>
       </c>
       <c r="C24">
-        <v>0.5421842325996806</v>
+        <v>0.5705445924655521</v>
       </c>
       <c r="D24">
-        <v>0.08363688733229679</v>
+        <v>0.08941375651940575</v>
       </c>
       <c r="E24">
-        <v>0.08598547056558026</v>
+        <v>0.08156624310198701</v>
       </c>
       <c r="F24">
-        <v>0.5818959522696687</v>
+        <v>0.5402610163870136</v>
       </c>
       <c r="G24">
-        <v>0.4443640929740837</v>
+        <v>0.4031235939718414</v>
       </c>
       <c r="H24">
-        <v>0.0002245861613685562</v>
+        <v>0.0002248665224775515</v>
       </c>
       <c r="I24">
-        <v>0.002340098524729051</v>
+        <v>0.002615161624156315</v>
       </c>
       <c r="J24">
-        <v>0.3188211515532373</v>
+        <v>0.3235850266595151</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.1390078800835042</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.08607218467983913</v>
       </c>
       <c r="N24">
-        <v>0.2305036194048569</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0.5037979637432031</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>0.8587863054148883</v>
+        <v>0.239814616899011</v>
       </c>
       <c r="Q24">
-        <v>1.559557591211217</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0.4935138162389308</v>
+      </c>
+      <c r="R24">
+        <v>0.8949028459257349</v>
+      </c>
+      <c r="S24">
+        <v>1.426103525894064</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.327809715286264</v>
+        <v>2.249153735141931</v>
       </c>
       <c r="C25">
-        <v>0.4870830977666145</v>
+        <v>0.5018624181379892</v>
       </c>
       <c r="D25">
-        <v>0.0703958736781658</v>
+        <v>0.07436920539690561</v>
       </c>
       <c r="E25">
-        <v>0.08275058667743185</v>
+        <v>0.07903096439193646</v>
       </c>
       <c r="F25">
-        <v>0.5110623420699199</v>
+        <v>0.479810807782755</v>
       </c>
       <c r="G25">
-        <v>0.3919828808059549</v>
+        <v>0.350953794883921</v>
       </c>
       <c r="H25">
-        <v>3.076734667595282E-05</v>
+        <v>1.616628562595146E-05</v>
       </c>
       <c r="I25">
-        <v>0.001250072941831881</v>
+        <v>0.001562831956538169</v>
       </c>
       <c r="J25">
-        <v>0.301300072771582</v>
+        <v>0.3179489029189284</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.1467648701409061</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.07670484307892522</v>
       </c>
       <c r="N25">
-        <v>0.1966044190323188</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>0.4154423475440439</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>0.8709806011302135</v>
+        <v>0.2047677015237142</v>
       </c>
       <c r="Q25">
-        <v>1.41133959776846</v>
+        <v>0.4080793015580113</v>
+      </c>
+      <c r="R25">
+        <v>0.8914085151820572</v>
+      </c>
+      <c r="S25">
+        <v>1.309584324851073</v>
       </c>
     </row>
   </sheetData>
